--- a/results/compiled results.xlsx
+++ b/results/compiled results.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="28340" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="28260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -84,7 +84,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -110,14 +117,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -136,10 +146,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="104"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="4"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -164,11 +174,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>SNI Support</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> By Rank Ranges</a:t>
+              <a:t>SNI Support By Rank</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -226,7 +232,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent2">
+                <a:tint val="65000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -234,6 +242,65 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$2:$A$7</c:f>
@@ -312,6 +379,65 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$2:$A$7</c:f>
@@ -382,7 +508,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="accent2">
+                <a:shade val="65000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -390,6 +518,65 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$2:$A$7</c:f>
@@ -445,19 +632,20 @@
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="1685357664"/>
-        <c:axId val="1685359440"/>
+        <c:axId val="2132344320"/>
+        <c:axId val="2132346640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1685357664"/>
+        <c:axId val="2132344320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -485,7 +673,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -500,7 +688,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1685359440"/>
+        <c:crossAx val="2132346640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -508,7 +696,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1685359440"/>
+        <c:axId val="2132346640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -528,6 +716,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -543,7 +732,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -558,7 +747,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1685357664"/>
+        <c:crossAx val="2132344320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -586,7 +775,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -646,10 +835,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="104"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="4"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -674,13 +863,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>% SNI Support by Incremental</a:t>
+              <a:t>% SNI Support by Cumulative Rank</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Ranks</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -737,7 +921,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent2">
+                <a:tint val="65000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -745,6 +931,65 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$41:$A$47</c:f>
@@ -778,28 +1023,28 @@
             <c:numRef>
               <c:f>Sheet1!$B$41:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>97.0</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>87.2</c:v>
+                  <c:v>0.872</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>82.16</c:v>
+                  <c:v>0.8216</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>80.28</c:v>
+                  <c:v>0.8028</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>77.625</c:v>
+                  <c:v>0.77625</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>74.262</c:v>
+                  <c:v>0.74262</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70.85666666666667</c:v>
+                  <c:v>0.708566666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -829,6 +1074,65 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$41:$A$47</c:f>
@@ -862,28 +1166,28 @@
             <c:numRef>
               <c:f>Sheet1!$C$41:$C$47</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>25.0</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.8</c:v>
+                  <c:v>0.158</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.98</c:v>
+                  <c:v>0.1498</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.58</c:v>
+                  <c:v>0.1658</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.52</c:v>
+                  <c:v>0.1752</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.816</c:v>
+                  <c:v>0.18816</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20.01266666666667</c:v>
+                  <c:v>0.200126666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -905,7 +1209,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="accent2">
+                <a:shade val="65000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -913,6 +1219,65 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$41:$A$47</c:f>
@@ -946,47 +1311,48 @@
             <c:numRef>
               <c:f>Sheet1!$D$41:$D$47</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.4</c:v>
+                  <c:v>0.034</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.96</c:v>
+                  <c:v>0.0596</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.74</c:v>
+                  <c:v>0.0774</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.93</c:v>
+                  <c:v>0.0893</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.847999999999998</c:v>
+                  <c:v>0.09848</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.834</c:v>
+                  <c:v>0.09834</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="1636286112"/>
-        <c:axId val="1704402096"/>
+        <c:axId val="2132381520"/>
+        <c:axId val="2132384272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1636286112"/>
+        <c:axId val="2132381520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1014,7 +1380,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1029,7 +1395,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1704402096"/>
+        <c:crossAx val="2132384272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1037,7 +1403,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1704402096"/>
+        <c:axId val="2132384272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1072,7 +1438,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1087,7 +1453,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1636286112"/>
+        <c:crossAx val="2132381520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1115,7 +1481,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1169,82 +1535,14 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="22">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="22">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -2589,7 +2887,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M59" sqref="M59"/>
+      <selection activeCell="B41" sqref="B41:D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2839,16 +3137,16 @@
       <c r="A41" t="s">
         <v>11</v>
       </c>
-      <c r="B41">
-        <f>(B31/100)*100</f>
-        <v>97</v>
-      </c>
-      <c r="C41">
-        <f>(C31/100)*100</f>
-        <v>25</v>
-      </c>
-      <c r="D41">
-        <f>(D31/100)*100</f>
+      <c r="B41" s="1">
+        <f>(B31/100)</f>
+        <v>0.97</v>
+      </c>
+      <c r="C41" s="1">
+        <f t="shared" ref="C41:D41" si="0">(C31/100)</f>
+        <v>0.25</v>
+      </c>
+      <c r="D41" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2856,102 +3154,102 @@
       <c r="A42" t="s">
         <v>12</v>
       </c>
-      <c r="B42">
-        <f>(B32/1000)*100</f>
-        <v>87.2</v>
-      </c>
-      <c r="C42">
-        <f>(C32/1000)*100</f>
-        <v>15.8</v>
-      </c>
-      <c r="D42">
-        <f>(D32/1000)*100</f>
-        <v>3.4000000000000004</v>
+      <c r="B42" s="1">
+        <f>(B32/1000)</f>
+        <v>0.872</v>
+      </c>
+      <c r="C42" s="1">
+        <f t="shared" ref="C42:D42" si="1">(C32/1000)</f>
+        <v>0.158</v>
+      </c>
+      <c r="D42" s="1">
+        <f t="shared" si="1"/>
+        <v>3.4000000000000002E-2</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>13</v>
       </c>
-      <c r="B43">
-        <f>(B33/5000)*100</f>
-        <v>82.16</v>
-      </c>
-      <c r="C43">
-        <f>(C33/5000)*100</f>
-        <v>14.979999999999999</v>
-      </c>
-      <c r="D43">
-        <f>(D33/5000)*100</f>
-        <v>5.96</v>
+      <c r="B43" s="1">
+        <f>(B33/5000)</f>
+        <v>0.8216</v>
+      </c>
+      <c r="C43" s="1">
+        <f t="shared" ref="C43:D43" si="2">(C33/5000)</f>
+        <v>0.14979999999999999</v>
+      </c>
+      <c r="D43" s="1">
+        <f t="shared" si="2"/>
+        <v>5.96E-2</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>14</v>
       </c>
-      <c r="B44">
-        <f>(B34/10000)*100</f>
-        <v>80.28</v>
-      </c>
-      <c r="C44">
-        <f>(C34/10000)*100</f>
-        <v>16.580000000000002</v>
-      </c>
-      <c r="D44">
-        <f>(D34/10000)*100</f>
-        <v>7.7399999999999993</v>
+      <c r="B44" s="1">
+        <f>(B34/10000)</f>
+        <v>0.80279999999999996</v>
+      </c>
+      <c r="C44" s="1">
+        <f t="shared" ref="C44:D44" si="3">(C34/10000)</f>
+        <v>0.1658</v>
+      </c>
+      <c r="D44" s="1">
+        <f t="shared" si="3"/>
+        <v>7.7399999999999997E-2</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>15</v>
       </c>
-      <c r="B45">
-        <f>(B35/20000)*100</f>
-        <v>77.625</v>
-      </c>
-      <c r="C45">
-        <f>(C35/20000)*100</f>
-        <v>17.52</v>
-      </c>
-      <c r="D45">
-        <f>(D35/20000)*100</f>
-        <v>8.93</v>
+      <c r="B45" s="1">
+        <f>(B35/20000)</f>
+        <v>0.77625</v>
+      </c>
+      <c r="C45" s="1">
+        <f t="shared" ref="C45:D45" si="4">(C35/20000)</f>
+        <v>0.17519999999999999</v>
+      </c>
+      <c r="D45" s="1">
+        <f t="shared" si="4"/>
+        <v>8.9300000000000004E-2</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>16</v>
       </c>
-      <c r="B46">
-        <f>(B36/50000)*100</f>
-        <v>74.262</v>
-      </c>
-      <c r="C46">
-        <f>(C36/50000)*100</f>
-        <v>18.815999999999999</v>
-      </c>
-      <c r="D46">
-        <f>(D36/50000)*100</f>
-        <v>9.847999999999999</v>
+      <c r="B46" s="1">
+        <f>(B36/50000)</f>
+        <v>0.74261999999999995</v>
+      </c>
+      <c r="C46" s="1">
+        <f t="shared" ref="C46:D46" si="5">(C36/50000)</f>
+        <v>0.18815999999999999</v>
+      </c>
+      <c r="D46" s="1">
+        <f t="shared" si="5"/>
+        <v>9.8479999999999998E-2</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>10</v>
       </c>
-      <c r="B47">
-        <f>(B37/150000)*100</f>
-        <v>70.856666666666669</v>
-      </c>
-      <c r="C47">
-        <f>(C37/150000)*100</f>
-        <v>20.012666666666668</v>
-      </c>
-      <c r="D47">
-        <f>(D37/150000)*100</f>
-        <v>9.8339999999999996</v>
+      <c r="B47" s="1">
+        <f>(B37/150000)</f>
+        <v>0.70856666666666668</v>
+      </c>
+      <c r="C47" s="1">
+        <f t="shared" ref="C47:D47" si="6">(C37/150000)</f>
+        <v>0.20012666666666667</v>
+      </c>
+      <c r="D47" s="1">
+        <f t="shared" si="6"/>
+        <v>9.8339999999999997E-2</v>
       </c>
     </row>
   </sheetData>

--- a/results/compiled results.xlsx
+++ b/results/compiled results.xlsx
@@ -108,7 +108,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -116,14 +116,104 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -641,11 +731,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="2132344320"/>
-        <c:axId val="2132346640"/>
+        <c:axId val="-2123113536"/>
+        <c:axId val="-2123110704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2132344320"/>
+        <c:axId val="-2123113536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -673,7 +763,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -688,7 +778,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2132346640"/>
+        <c:crossAx val="-2123110704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -696,7 +786,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2132346640"/>
+        <c:axId val="-2123110704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -732,7 +822,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -747,7 +837,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2132344320"/>
+        <c:crossAx val="-2123113536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -775,7 +865,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1348,11 +1438,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="2132381520"/>
-        <c:axId val="2132384272"/>
+        <c:axId val="-2123081872"/>
+        <c:axId val="-2123079040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2132381520"/>
+        <c:axId val="-2123081872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1380,7 +1470,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1395,7 +1485,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2132384272"/>
+        <c:crossAx val="-2123079040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1403,7 +1493,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2132384272"/>
+        <c:axId val="-2123079040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1438,7 +1528,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1453,7 +1543,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2132381520"/>
+        <c:crossAx val="-2123081872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1481,7 +1571,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2887,7 +2977,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41:D47"/>
+      <selection activeCell="A30" sqref="A30:D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3008,27 +3098,27 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="A30" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="A31" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="5">
         <v>97</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="3">
         <v>25</v>
       </c>
       <c r="D31">
@@ -3036,13 +3126,13 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="A32" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="6">
         <v>872</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="4">
         <v>158</v>
       </c>
       <c r="D32">
@@ -3050,13 +3140,13 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="A33" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="6">
         <v>4108</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="4">
         <v>749</v>
       </c>
       <c r="D33">
@@ -3064,13 +3154,13 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="A34" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="6">
         <v>8028</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="4">
         <v>1658</v>
       </c>
       <c r="D34">
@@ -3078,13 +3168,13 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="A35" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="6">
         <v>15525</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="4">
         <v>3504</v>
       </c>
       <c r="D35">
@@ -3092,13 +3182,13 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="A36" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="6">
         <v>37131</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="4">
         <v>9408</v>
       </c>
       <c r="D36">
@@ -3106,16 +3196,16 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="A37" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="8">
         <v>106285</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="7">
         <v>30019</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="2">
         <v>14751</v>
       </c>
     </row>
